--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -143,13 +143,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +694,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>-3</v>
       </c>
       <c r="B32" s="5">
@@ -699,7 +702,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>-3</v>
       </c>
       <c r="B33" s="3">
@@ -707,7 +710,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>-3</v>
       </c>
       <c r="B34" s="3">
@@ -715,7 +718,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>-3</v>
       </c>
       <c r="B35" s="3">
@@ -723,7 +726,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>-3</v>
       </c>
       <c r="B36" s="3">
@@ -731,7 +734,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>-3</v>
       </c>
       <c r="B37" s="3">
@@ -739,11 +742,107 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>-3</v>
       </c>
       <c r="B38" s="3">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B40" s="8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -143,15 +143,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -439,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +751,7 @@
       <c r="A39" s="1">
         <v>-2</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>-3</v>
       </c>
     </row>
@@ -761,7 +759,7 @@
       <c r="A40" s="1">
         <v>-1</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>-3</v>
       </c>
     </row>
@@ -769,7 +767,7 @@
       <c r="A41" s="1">
         <v>0</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="6">
         <v>-3</v>
       </c>
     </row>
@@ -777,7 +775,7 @@
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>-3</v>
       </c>
     </row>
@@ -785,12 +783,12 @@
       <c r="A43" s="1">
         <v>2</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="6">
         <v>-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="2">
         <v>3</v>
       </c>
       <c r="B44" s="3">
@@ -798,7 +796,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="2">
         <v>3</v>
       </c>
       <c r="B45" s="3">
@@ -806,7 +804,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="2">
         <v>3</v>
       </c>
       <c r="B46" s="3">
@@ -814,7 +812,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="2">
         <v>3</v>
       </c>
       <c r="B47" s="3">
@@ -822,7 +820,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="2">
         <v>3</v>
       </c>
       <c r="B48" s="3">
@@ -830,7 +828,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="2">
         <v>3</v>
       </c>
       <c r="B49" s="3">
@@ -838,7 +836,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="2">
         <v>3</v>
       </c>
       <c r="B50" s="3">
